--- a/backend/php/excel/plantillas/ficha_mantenimiento.xlsx
+++ b/backend/php/excel/plantillas/ficha_mantenimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HelpDesk_MPP2.0\backend\php\excel\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2961C316-E614-429A-AC9E-0D8D26BD99DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F14F-42A0-478C-ADEB-CA10AC4351BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -304,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -501,11 +501,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -558,6 +573,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,12 +609,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435EAE3A-767C-453B-AC1A-898D5BE4F3F2}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,23 +1239,26 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1269,16 +1291,16 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="I8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1324,8 +1346,8 @@
       <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1388,10 +1410,10 @@
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1633,7 +1655,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="40"/>
+      <c r="C43" s="30"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
@@ -1764,7 +1786,7 @@
       <c r="B52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="41"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
         <v>22</v>
       </c>
@@ -1850,24 +1872,24 @@
       <c r="H69" s="29"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
@@ -1879,7 +1901,7 @@
       <c r="A75" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A70:C70"/>
@@ -1888,6 +1910,7 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="E70:G70"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.22" top="0.36" bottom="0.19" header="0.16" footer="0.16"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>

--- a/backend/php/excel/plantillas/ficha_mantenimiento.xlsx
+++ b/backend/php/excel/plantillas/ficha_mantenimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F14F-42A0-478C-ADEB-CA10AC4351BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DA8B6-8076-476A-B974-C034D540FDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -304,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -501,21 +501,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -579,6 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,10 +595,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,26 +1224,26 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1291,16 +1276,16 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="I8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1346,8 +1331,8 @@
       <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1410,10 +1395,10 @@
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1872,24 +1857,24 @@
       <c r="H69" s="29"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="36" t="s">
+      <c r="I70" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>

--- a/backend/php/excel/plantillas/ficha_mantenimiento.xlsx
+++ b/backend/php/excel/plantillas/ficha_mantenimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisti\backend\php\excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DA8B6-8076-476A-B974-C034D540FDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7331B07C-1297-4661-B780-439F048EA22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{424BB684-937D-49A7-8A4A-94D4ABA78A75}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>MANTENIMIENTO / SOPORTE TECNICO</t>
   </si>
@@ -212,13 +212,16 @@
   </si>
   <si>
     <t>__________________________________________</t>
+  </si>
+  <si>
+    <t>HORA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +292,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -304,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -501,11 +512,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -595,7 +621,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,8 +1270,8 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1292,8 +1321,13 @@
       <c r="A9" s="8"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,7 +1920,7 @@
       <c r="A75" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A70:C70"/>
@@ -1896,6 +1930,7 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.22" top="0.36" bottom="0.19" header="0.16" footer="0.16"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
